--- a/src/route/excel/hocsinh.xlsx
+++ b/src/route/excel/hocsinh.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t xml:space="preserve"> thang </t>
+  </si>
+  <si>
+    <t>duc thang dep trai</t>
+  </si>
+  <si>
+    <t>duc thang bau</t>
   </si>
 </sst>
 </file>
@@ -409,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -467,6 +473,39 @@
         <v>33946.708333333336</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>37232.708333333336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>37135.708333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>37135.708333333336</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
